--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>847005.0259241654</v>
+        <v>843244.2885825543</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33103927.34340675</v>
+        <v>33103927.34340676</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5973276.738376966</v>
+        <v>5973276.738376968</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4574365.288720923</v>
+        <v>4574365.288720921</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>23.58875529488437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343126</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,11 +834,11 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>31.55068697729995</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>15.18661160258025</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>41.31500304752735</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="8">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="W9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>383.7523561961052</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>4.577452462842365</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>218.0884648935505</v>
+        <v>258.5502556379859</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>380.7619606047714</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>5.9387839381618</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>56.49942165112795</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>131.6233193188799</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>144.7385082841693</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>172.2082561429372</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,10 +2013,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>144.9858167561218</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>92.61628845631235</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>224.1001835835164</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>368.720292523433</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>160.4177017065578</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4974420990187</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2326,13 +2326,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>345.9280684932372</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>9.547556917935472</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>362.4884309924167</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>328.4187498484728</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>429.3939340721615</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,13 +2851,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>66.90914289149794</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>155.3399762223235</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>309.0332570169318</v>
       </c>
     </row>
     <row r="33">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>296.1393407309912</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>232.5180629868288</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>88.65337356270065</v>
       </c>
       <c r="T37" t="n">
-        <v>170.8519970695164</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>18.77069526306367</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>123.7011566999244</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7029462347533</v>
+        <v>118.2357082007287</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3745,19 +3745,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5419950849943</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>54.91274684145317</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>91.76459763478742</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>150.6717294556378</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>411.7687924422988</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>170.9711526764026</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.6010759720842</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4188,19 +4188,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>181.8996817528551</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4333,16 +4333,16 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L2" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O2" t="n">
         <v>124.3581591730573</v>
@@ -4351,7 +4351,7 @@
         <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C3" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D3" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E3" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
         <v>3.305200243802188</v>
@@ -4409,25 +4409,25 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N3" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O3" t="n">
-        <v>111.1725794383639</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P3" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q3" t="n">
         <v>124.3581591730573</v>
@@ -4445,16 +4445,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W3" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X3" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
         <v>45.03752655443588</v>
@@ -4482,25 +4482,25 @@
         <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M4" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N4" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
         <v>124.3581591730573</v>
@@ -4512,28 +4512,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V4" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W4" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4573,22 +4573,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q5" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C6" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="E6" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="G6" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4646,22 +4646,22 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P6" t="n">
         <v>83.45630615600527</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="7">
@@ -4704,10 +4704,10 @@
         <v>60.37753827421391</v>
       </c>
       <c r="C7" t="n">
+        <v>60.37753827421391</v>
+      </c>
+      <c r="D7" t="n">
         <v>18.64521196358022</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
         <v>3.305200243802188</v>
@@ -4728,22 +4728,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
         <v>85.10890627790634</v>
       </c>
       <c r="M7" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="N7" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="O7" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="P7" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="N7" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O7" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P7" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4752,22 +4752,22 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="T7" t="n">
         <v>102.1098645848476</v>
       </c>
-      <c r="T7" t="n">
-        <v>60.37753827421391</v>
-      </c>
       <c r="U7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y7" t="n">
         <v>60.37753827421391</v>
@@ -4807,10 +4807,10 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M8" t="n">
         <v>85.10890627790634</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4886,22 +4886,22 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L9" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4919,16 +4919,16 @@
         <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W9" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4965,49 +4965,49 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M10" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="N10" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W10" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X10" t="n">
-        <v>45.03752655443588</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443588</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>485.3490243655314</v>
+        <v>870.7449789968388</v>
       </c>
       <c r="C11" t="n">
-        <v>47.20655154895472</v>
+        <v>870.7449789968388</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895472</v>
+        <v>434.8351941712833</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895472</v>
+        <v>434.8351941712833</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895472</v>
+        <v>434.8351941712833</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2148.556325916848</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2143.932636560442</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W11" t="n">
-        <v>1739.077181971475</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.934718550786</v>
+        <v>1279.031102697185</v>
       </c>
       <c r="Y11" t="n">
-        <v>911.6485948504392</v>
+        <v>870.7449789968388</v>
       </c>
     </row>
     <row r="12">
@@ -5102,22 +5102,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,7 +5126,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
         <v>803.387703298788</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.196554659879</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C13" t="n">
-        <v>856.6348431431041</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092371</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827552</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789086</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.320157362629</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725808</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.406928045454</v>
+        <v>1147.149800392748</v>
       </c>
       <c r="X13" t="n">
-        <v>1221.015173378866</v>
+        <v>1147.149800392748</v>
       </c>
       <c r="Y13" t="n">
-        <v>1221.015173378866</v>
+        <v>919.7301297068562</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1178.570277437541</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="C14" t="n">
-        <v>1178.570277437541</v>
+        <v>1265.092028726103</v>
       </c>
       <c r="D14" t="n">
-        <v>1178.570277437541</v>
+        <v>1265.092028726103</v>
       </c>
       <c r="E14" t="n">
-        <v>744.7955325958366</v>
+        <v>831.3172838843982</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2354.328805793028</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2354.328805793028</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>1991.711855726855</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W14" t="n">
-        <v>1586.856401137888</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="X14" t="n">
-        <v>1586.856401137888</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="Y14" t="n">
-        <v>1178.570277437541</v>
+        <v>1703.23450154268</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5366,7 +5366,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.6816307030854</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="C16" t="n">
-        <v>571.1199191863103</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="D16" t="n">
-        <v>514.0497963063831</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E16" t="n">
-        <v>344.2917925571204</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
@@ -5439,16 +5439,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>831.5726843696448</v>
+        <v>839.4924998801313</v>
       </c>
       <c r="M16" t="n">
-        <v>992.6864461505238</v>
+        <v>970.0968922186607</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527957</v>
@@ -5475,13 +5475,13 @@
         <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.311674774552</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.919920107964</v>
+        <v>1003.332422563995</v>
       </c>
       <c r="Y16" t="n">
-        <v>935.5002494220726</v>
+        <v>775.9127518781033</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1329.869547551212</v>
+        <v>755.801604542067</v>
       </c>
       <c r="C17" t="n">
-        <v>891.7270747346354</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="D17" t="n">
-        <v>891.7270747346354</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="E17" t="n">
-        <v>745.5265613162826</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="F17" t="n">
-        <v>317.6591317254904</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="G17" t="n">
-        <v>317.6591317254904</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="H17" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I17" t="n">
         <v>119.1375305205814</v>
       </c>
       <c r="J17" t="n">
-        <v>312.6047130658851</v>
+        <v>312.604713065882</v>
       </c>
       <c r="K17" t="n">
-        <v>548.8763634451061</v>
+        <v>548.8763634451029</v>
       </c>
       <c r="L17" t="n">
-        <v>841.9922383090068</v>
+        <v>841.9922383090036</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.140126477794</v>
+        <v>1168.140126477791</v>
       </c>
       <c r="N17" t="n">
-        <v>1499.565428454271</v>
+        <v>1499.565428454268</v>
       </c>
       <c r="O17" t="n">
-        <v>1812.520942995564</v>
+        <v>1812.520942995561</v>
       </c>
       <c r="P17" t="n">
-        <v>2079.621234174833</v>
+        <v>2079.62123417483</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.202429185901</v>
+        <v>2280.202429185897</v>
       </c>
       <c r="R17" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S17" t="n">
-        <v>2356.412643684838</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="T17" t="n">
-        <v>2356.412643684838</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="U17" t="n">
-        <v>2097.341952206352</v>
+        <v>2137.808321991552</v>
       </c>
       <c r="V17" t="n">
-        <v>1734.725002140179</v>
+        <v>1775.191371925378</v>
       </c>
       <c r="W17" t="n">
-        <v>1329.869547551212</v>
+        <v>1601.243638447664</v>
       </c>
       <c r="X17" t="n">
-        <v>1329.869547551212</v>
+        <v>1182.101175026975</v>
       </c>
       <c r="Y17" t="n">
-        <v>1329.869547551212</v>
+        <v>1182.101175026975</v>
       </c>
     </row>
     <row r="18">
@@ -5576,31 +5576,31 @@
         <v>436.8458726234791</v>
       </c>
       <c r="D18" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E18" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F18" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G18" t="n">
-        <v>79.88023030280458</v>
+        <v>79.88023030280451</v>
       </c>
       <c r="H18" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I18" t="n">
-        <v>82.15431644087695</v>
+        <v>82.15431644087688</v>
       </c>
       <c r="J18" t="n">
-        <v>176.0476557873439</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K18" t="n">
-        <v>336.5263278415142</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L18" t="n">
-        <v>552.3097067165364</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M18" t="n">
         <v>804.1187320192339</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>920.4611584273024</v>
+        <v>898.0249554740305</v>
       </c>
       <c r="C19" t="n">
-        <v>920.4611584273024</v>
+        <v>725.4632439572555</v>
       </c>
       <c r="D19" t="n">
-        <v>754.5831656288251</v>
+        <v>559.5852511587782</v>
       </c>
       <c r="E19" t="n">
-        <v>584.8251618795623</v>
+        <v>389.8272474095155</v>
       </c>
       <c r="F19" t="n">
-        <v>408.1181078413185</v>
+        <v>389.8272474095155</v>
       </c>
       <c r="G19" t="n">
-        <v>243.3769274538369</v>
+        <v>243.3769274538368</v>
       </c>
       <c r="H19" t="n">
-        <v>111.0328668331528</v>
+        <v>111.0328668331527</v>
       </c>
       <c r="I19" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="J19" t="n">
-        <v>106.8432439715839</v>
+        <v>193.4229291362737</v>
       </c>
       <c r="K19" t="n">
-        <v>203.6433445391422</v>
+        <v>290.2230297038319</v>
       </c>
       <c r="L19" t="n">
-        <v>327.5141461574401</v>
+        <v>414.0938313221299</v>
       </c>
       <c r="M19" t="n">
-        <v>917.6024056768827</v>
+        <v>1004.182090841572</v>
       </c>
       <c r="N19" t="n">
-        <v>1487.360120638417</v>
+        <v>1573.939805803107</v>
       </c>
       <c r="O19" t="n">
-        <v>1862.364699414593</v>
+        <v>2111.37493637665</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.640649562618</v>
+        <v>2310.640649562615</v>
       </c>
       <c r="Q19" t="n">
-        <v>2380.407920793274</v>
+        <v>2380.40792079327</v>
       </c>
       <c r="R19" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S19" t="n">
-        <v>2252.452474974276</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="T19" t="n">
-        <v>2010.205250877683</v>
+        <v>2154.631789373444</v>
       </c>
       <c r="U19" t="n">
-        <v>1916.653444356155</v>
+        <v>1876.245157422188</v>
       </c>
       <c r="V19" t="n">
-        <v>1629.697936226585</v>
+        <v>1589.289649292618</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.671531812877</v>
+        <v>1317.26324487891</v>
       </c>
       <c r="X19" t="n">
-        <v>1112.279777146289</v>
+        <v>1317.26324487891</v>
       </c>
       <c r="Y19" t="n">
-        <v>1112.279777146289</v>
+        <v>1089.843574193018</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1619.578818958415</v>
+        <v>1148.353659713065</v>
       </c>
       <c r="C20" t="n">
-        <v>1181.436346141838</v>
+        <v>710.211186896488</v>
       </c>
       <c r="D20" t="n">
-        <v>745.5265613162826</v>
+        <v>274.3014020709325</v>
       </c>
       <c r="E20" t="n">
-        <v>745.5265613162826</v>
+        <v>274.3014020709325</v>
       </c>
       <c r="F20" t="n">
-        <v>317.6591317254904</v>
+        <v>274.3014020709325</v>
       </c>
       <c r="G20" t="n">
-        <v>317.6591317254904</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="H20" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I20" t="n">
         <v>119.1375305205814</v>
       </c>
       <c r="J20" t="n">
-        <v>276.7843057640267</v>
+        <v>312.604713065882</v>
       </c>
       <c r="K20" t="n">
-        <v>513.0559561432476</v>
+        <v>548.8763634451029</v>
       </c>
       <c r="L20" t="n">
-        <v>806.1718310071483</v>
+        <v>841.9922383090036</v>
       </c>
       <c r="M20" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477791</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454268</v>
       </c>
       <c r="O20" t="n">
-        <v>1776.700535693706</v>
+        <v>1812.520942995561</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.800826872975</v>
+        <v>2079.62123417483</v>
       </c>
       <c r="Q20" t="n">
-        <v>2244.382021884042</v>
+        <v>2280.202429185897</v>
       </c>
       <c r="R20" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S20" t="n">
-        <v>2396.879013470041</v>
+        <v>2356.412643684835</v>
       </c>
       <c r="T20" t="n">
-        <v>2396.879013470041</v>
+        <v>2356.412643684835</v>
       </c>
       <c r="U20" t="n">
-        <v>2396.879013470041</v>
+        <v>2356.412643684835</v>
       </c>
       <c r="V20" t="n">
-        <v>2396.879013470041</v>
+        <v>1993.795693618662</v>
       </c>
       <c r="W20" t="n">
-        <v>1992.023558881074</v>
+        <v>1993.795693618662</v>
       </c>
       <c r="X20" t="n">
-        <v>1619.578818958415</v>
+        <v>1574.653230197972</v>
       </c>
       <c r="Y20" t="n">
-        <v>1619.578818958415</v>
+        <v>1574.653230197972</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>436.8458726234791</v>
       </c>
       <c r="D21" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E21" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F21" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G21" t="n">
-        <v>79.88023030280458</v>
+        <v>79.88023030280451</v>
       </c>
       <c r="H21" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I21" t="n">
-        <v>82.15431644087695</v>
+        <v>82.15431644087688</v>
       </c>
       <c r="J21" t="n">
-        <v>176.0476557873439</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K21" t="n">
-        <v>336.5263278415142</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L21" t="n">
-        <v>552.3097067165364</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M21" t="n">
-        <v>804.1187320192339</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N21" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O21" t="n">
-        <v>1299.045295755084</v>
+        <v>1299.045295755085</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.81959631989</v>
+        <v>1488.819596319891</v>
       </c>
       <c r="Q21" t="n">
         <v>1615.678690528125</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.8255190103786</v>
+        <v>732.8423423721597</v>
       </c>
       <c r="C22" t="n">
-        <v>555.2638074936035</v>
+        <v>560.2806308553846</v>
       </c>
       <c r="D22" t="n">
-        <v>389.3858146951262</v>
+        <v>394.4026380569073</v>
       </c>
       <c r="E22" t="n">
-        <v>389.3858146951262</v>
+        <v>224.6446343076446</v>
       </c>
       <c r="F22" t="n">
-        <v>212.6787606568824</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="G22" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="H22" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I22" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="J22" t="n">
         <v>106.8432439715839</v>
       </c>
       <c r="K22" t="n">
-        <v>460.8820419675563</v>
+        <v>203.6433445391421</v>
       </c>
       <c r="L22" t="n">
-        <v>584.7528435858543</v>
+        <v>456.3746866766509</v>
       </c>
       <c r="M22" t="n">
-        <v>1174.841103105297</v>
+        <v>586.9790790151803</v>
       </c>
       <c r="N22" t="n">
-        <v>1744.598818066831</v>
+        <v>1156.736793976715</v>
       </c>
       <c r="O22" t="n">
-        <v>1862.364699414593</v>
+        <v>1694.171924550258</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.640649562618</v>
+        <v>2142.447874698283</v>
       </c>
       <c r="Q22" t="n">
-        <v>2380.407920793274</v>
+        <v>2380.40792079327</v>
       </c>
       <c r="R22" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S22" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="T22" t="n">
-        <v>2154.631789373448</v>
+        <v>2234.840930938161</v>
       </c>
       <c r="U22" t="n">
-        <v>1876.245157422191</v>
+        <v>1956.454298986904</v>
       </c>
       <c r="V22" t="n">
-        <v>1589.289649292621</v>
+        <v>1669.498790857335</v>
       </c>
       <c r="W22" t="n">
-        <v>1317.263244878913</v>
+        <v>1397.472386443626</v>
       </c>
       <c r="X22" t="n">
-        <v>1147.063808415257</v>
+        <v>1152.080631777039</v>
       </c>
       <c r="Y22" t="n">
-        <v>919.6441377293656</v>
+        <v>924.6609610911469</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2195.069728310112</v>
+        <v>1283.347153964402</v>
       </c>
       <c r="C23" t="n">
-        <v>1756.927255493536</v>
+        <v>845.2046811478258</v>
       </c>
       <c r="D23" t="n">
-        <v>1321.01747066798</v>
+        <v>409.2948963222703</v>
       </c>
       <c r="E23" t="n">
-        <v>887.2427258262751</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="F23" t="n">
-        <v>459.3752962354828</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G23" t="n">
         <v>59.87260491495994</v>
@@ -5989,28 +5989,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>404.7041099004329</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>1145.627595723062</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527074</v>
+        <v>1438.743470586963</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821495</v>
+        <v>1764.89135875575</v>
       </c>
       <c r="N23" t="n">
-        <v>1475.680045797972</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.635560339265</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P23" t="n">
-        <v>2055.735851518534</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q23" t="n">
-        <v>2796.659337341163</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R23" t="n">
         <v>2993.630245747997</v>
@@ -6019,22 +6019,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T23" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U23" t="n">
-        <v>2983.986248861193</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="V23" t="n">
-        <v>2621.36929879502</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="W23" t="n">
-        <v>2621.36929879502</v>
+        <v>2117.932848149657</v>
       </c>
       <c r="X23" t="n">
-        <v>2621.36929879502</v>
+        <v>2117.932848149657</v>
       </c>
       <c r="Y23" t="n">
-        <v>2621.36929879502</v>
+        <v>1709.64672444931</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M24" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6135,7 +6135,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G25" t="n">
         <v>255.311952099396</v>
@@ -6150,16 +6150,16 @@
         <v>118.7782686171431</v>
       </c>
       <c r="K25" t="n">
-        <v>490.3368237558368</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L25" t="n">
-        <v>1032.417507142096</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M25" t="n">
-        <v>1622.505766661538</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N25" t="n">
-        <v>2192.263481623072</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O25" t="n">
         <v>2459.115931692548</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1295.707064877591</v>
+        <v>1367.699607398797</v>
       </c>
       <c r="C26" t="n">
-        <v>1295.707064877591</v>
+        <v>929.5571345822202</v>
       </c>
       <c r="D26" t="n">
-        <v>859.7972800520351</v>
+        <v>493.6473497566648</v>
       </c>
       <c r="E26" t="n">
-        <v>426.0225352103303</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="F26" t="n">
         <v>59.87260491495994</v>
@@ -6235,16 +6235,16 @@
         <v>818.1068556527074</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821495</v>
+        <v>1355.393174909598</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339265</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P26" t="n">
-        <v>2529.559046161894</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q26" t="n">
         <v>2876.953661463856</v>
@@ -6256,22 +6256,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U26" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V26" t="n">
-        <v>2119.704982887247</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W26" t="n">
-        <v>1714.84952829828</v>
+        <v>2621.427765004741</v>
       </c>
       <c r="X26" t="n">
-        <v>1295.707064877591</v>
+        <v>2202.285301584051</v>
       </c>
       <c r="Y26" t="n">
-        <v>1295.707064877591</v>
+        <v>1793.999177883705</v>
       </c>
     </row>
     <row r="27">
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>122.2616164063883</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>493.820171545082</v>
+        <v>490.3368237558368</v>
       </c>
       <c r="L28" t="n">
-        <v>1035.900854931341</v>
+        <v>614.2076253741348</v>
       </c>
       <c r="M28" t="n">
-        <v>1625.989114450783</v>
+        <v>1204.295884893577</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>1774.053599855112</v>
       </c>
       <c r="O28" t="n">
-        <v>2290.923156828216</v>
+        <v>2311.488730428655</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976242</v>
+        <v>2759.76468057668</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1329.016327598575</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="C29" t="n">
-        <v>895.2850810610382</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="D29" t="n">
-        <v>459.3752962354828</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="E29" t="n">
-        <v>459.3752962354828</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="F29" t="n">
-        <v>459.3752962354828</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G29" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6484,31 +6484,31 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2522.788302738623</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V29" t="n">
-        <v>2160.17135267245</v>
+        <v>2414.736940133726</v>
       </c>
       <c r="W29" t="n">
-        <v>1755.315898083483</v>
+        <v>2009.881485544759</v>
       </c>
       <c r="X29" t="n">
-        <v>1755.315898083483</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="Y29" t="n">
-        <v>1755.315898083483</v>
+        <v>1590.739022124069</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6609,10 +6609,10 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868774</v>
       </c>
       <c r="G31" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
         <v>122.9678914787119</v>
@@ -6621,16 +6621,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K31" t="n">
-        <v>302.1580543493911</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L31" t="n">
-        <v>844.2387377356501</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M31" t="n">
-        <v>1434.326997255093</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N31" t="n">
         <v>1921.680801119005</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1952.476103880825</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>1514.333631064248</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>1078.423846238693</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>644.649101396988</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>216.7816718061958</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
         <v>59.87260491495994</v>
@@ -6700,28 +6700,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>369.0136545322792</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K32" t="n">
-        <v>605.2853049115001</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L32" t="n">
-        <v>898.4011797754008</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M32" t="n">
-        <v>1224.549067944188</v>
+        <v>1144.254743821495</v>
       </c>
       <c r="N32" t="n">
-        <v>1555.974369920665</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O32" t="n">
-        <v>1868.929884461958</v>
+        <v>1788.635560339265</v>
       </c>
       <c r="P32" t="n">
-        <v>2136.030175641227</v>
+        <v>2529.559046161894</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2730.140241172961</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
@@ -6730,22 +6730,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2378.775674365733</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W32" t="n">
-        <v>2378.775674365733</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X32" t="n">
-        <v>2378.775674365733</v>
+        <v>2534.021412542105</v>
       </c>
       <c r="Y32" t="n">
-        <v>2378.775674365733</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
         <v>816.053756664793</v>
@@ -6858,13 +6858,13 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>215.5783691847013</v>
+        <v>469.7712501553981</v>
       </c>
       <c r="L34" t="n">
-        <v>757.6590525709603</v>
+        <v>593.6420517736962</v>
       </c>
       <c r="M34" t="n">
         <v>1183.730311293139</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1221.120485114554</v>
+        <v>911.7147946857485</v>
       </c>
       <c r="C35" t="n">
-        <v>782.9780122979778</v>
+        <v>911.7147946857485</v>
       </c>
       <c r="D35" t="n">
-        <v>347.0682274724223</v>
+        <v>475.805009860193</v>
       </c>
       <c r="E35" t="n">
-        <v>347.0682274724223</v>
+        <v>475.805009860193</v>
       </c>
       <c r="F35" t="n">
-        <v>347.0682274724223</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="G35" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="H35" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I35" t="n">
         <v>119.1375305205814</v>
       </c>
       <c r="J35" t="n">
-        <v>276.7843057640267</v>
+        <v>312.604713065882</v>
       </c>
       <c r="K35" t="n">
-        <v>513.0559561432476</v>
+        <v>548.8763634451029</v>
       </c>
       <c r="L35" t="n">
-        <v>806.1718310071483</v>
+        <v>841.9922383090036</v>
       </c>
       <c r="M35" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477791</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454268</v>
       </c>
       <c r="O35" t="n">
-        <v>1812.520942995564</v>
+        <v>1812.520942995561</v>
       </c>
       <c r="P35" t="n">
-        <v>2079.621234174833</v>
+        <v>2079.62123417483</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.202429185901</v>
+        <v>2280.202429185897</v>
       </c>
       <c r="R35" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S35" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="T35" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="U35" t="n">
-        <v>2396.879013470041</v>
+        <v>2162.012283180312</v>
       </c>
       <c r="V35" t="n">
-        <v>2034.262063403868</v>
+        <v>2162.012283180312</v>
       </c>
       <c r="W35" t="n">
-        <v>1629.406608814901</v>
+        <v>1757.156828591345</v>
       </c>
       <c r="X35" t="n">
-        <v>1629.406608814901</v>
+        <v>1338.014365170656</v>
       </c>
       <c r="Y35" t="n">
-        <v>1221.120485114554</v>
+        <v>1338.014365170656</v>
       </c>
     </row>
     <row r="36">
@@ -6998,25 +6998,25 @@
         <v>436.8458726234791</v>
       </c>
       <c r="D36" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E36" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F36" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G36" t="n">
-        <v>79.88023030280458</v>
+        <v>79.88023030280451</v>
       </c>
       <c r="H36" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I36" t="n">
-        <v>82.15431644087695</v>
+        <v>82.15431644087688</v>
       </c>
       <c r="J36" t="n">
-        <v>176.0476557873441</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K36" t="n">
         <v>336.5263278415142</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8761115905812</v>
+        <v>563.0843386228969</v>
       </c>
       <c r="C37" t="n">
-        <v>577.8761115905812</v>
+        <v>390.5226271061219</v>
       </c>
       <c r="D37" t="n">
-        <v>577.8761115905812</v>
+        <v>224.6446343076446</v>
       </c>
       <c r="E37" t="n">
-        <v>408.1181078413185</v>
+        <v>224.6446343076446</v>
       </c>
       <c r="F37" t="n">
-        <v>408.1181078413185</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="G37" t="n">
-        <v>243.3769274538369</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="H37" t="n">
-        <v>111.0328668331528</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I37" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="J37" t="n">
-        <v>193.4229291362738</v>
+        <v>106.8432439715839</v>
       </c>
       <c r="K37" t="n">
-        <v>564.9814842749676</v>
+        <v>478.4017991102776</v>
       </c>
       <c r="L37" t="n">
-        <v>786.6565166237274</v>
+        <v>602.2726007285756</v>
       </c>
       <c r="M37" t="n">
-        <v>1376.74477614317</v>
+        <v>934.485972985522</v>
       </c>
       <c r="N37" t="n">
-        <v>1504.243687947059</v>
+        <v>1504.243687947056</v>
       </c>
       <c r="O37" t="n">
-        <v>2041.678818520603</v>
+        <v>2041.678818520599</v>
       </c>
       <c r="P37" t="n">
-        <v>2142.447874698286</v>
+        <v>2142.447874698283</v>
       </c>
       <c r="Q37" t="n">
-        <v>2380.407920793274</v>
+        <v>2380.40792079327</v>
       </c>
       <c r="R37" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S37" t="n">
-        <v>2252.452474974276</v>
+        <v>2307.330151285492</v>
       </c>
       <c r="T37" t="n">
-        <v>2079.874700156583</v>
+        <v>2065.082927188898</v>
       </c>
       <c r="U37" t="n">
-        <v>1801.488068205326</v>
+        <v>1786.696295237641</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.532560075756</v>
+        <v>1499.740787108072</v>
       </c>
       <c r="W37" t="n">
-        <v>1242.506155662048</v>
+        <v>1227.714382694363</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1144009954601</v>
+        <v>982.3226280277759</v>
       </c>
       <c r="Y37" t="n">
-        <v>769.6947303095683</v>
+        <v>754.9029573418841</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>936.5824081821801</v>
+        <v>1480.715246086495</v>
       </c>
       <c r="C38" t="n">
-        <v>917.6221099366612</v>
+        <v>1042.572773269918</v>
       </c>
       <c r="D38" t="n">
-        <v>481.7123251111057</v>
+        <v>606.6629884443626</v>
       </c>
       <c r="E38" t="n">
-        <v>47.93758026940083</v>
+        <v>172.8882436026577</v>
       </c>
       <c r="F38" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="G38" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="H38" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I38" t="n">
         <v>119.1375305205814</v>
@@ -7177,10 +7177,10 @@
         <v>276.7843057640267</v>
       </c>
       <c r="K38" t="n">
-        <v>513.0559561432476</v>
+        <v>513.0559561432475</v>
       </c>
       <c r="L38" t="n">
-        <v>806.1718310071483</v>
+        <v>806.1718310071482</v>
       </c>
       <c r="M38" t="n">
         <v>1132.319719175935</v>
@@ -7192,34 +7192,34 @@
         <v>1776.700535693706</v>
       </c>
       <c r="P38" t="n">
-        <v>2079.621234174833</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q38" t="n">
-        <v>2280.202429185901</v>
+        <v>2280.202429185897</v>
       </c>
       <c r="R38" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S38" t="n">
-        <v>2356.412643684838</v>
+        <v>2356.412643684835</v>
       </c>
       <c r="T38" t="n">
-        <v>2144.641392153951</v>
+        <v>2144.641392153947</v>
       </c>
       <c r="U38" t="n">
-        <v>2144.641392153951</v>
+        <v>1885.570700675461</v>
       </c>
       <c r="V38" t="n">
-        <v>1782.024442087777</v>
+        <v>1885.570700675461</v>
       </c>
       <c r="W38" t="n">
-        <v>1782.024442087777</v>
+        <v>1480.715246086495</v>
       </c>
       <c r="X38" t="n">
-        <v>1362.881978667088</v>
+        <v>1480.715246086495</v>
       </c>
       <c r="Y38" t="n">
-        <v>1362.881978667088</v>
+        <v>1480.715246086495</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>436.8458726234791</v>
       </c>
       <c r="D39" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E39" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F39" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G39" t="n">
-        <v>79.88023030280458</v>
+        <v>79.88023030280451</v>
       </c>
       <c r="H39" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I39" t="n">
         <v>82.15431644087676</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1093.022869944077</v>
+        <v>725.0218112428662</v>
       </c>
       <c r="C40" t="n">
-        <v>920.4611584273024</v>
+        <v>725.0218112428662</v>
       </c>
       <c r="D40" t="n">
-        <v>754.5831656288251</v>
+        <v>559.1438184443889</v>
       </c>
       <c r="E40" t="n">
-        <v>584.8251618795623</v>
+        <v>389.3858146951262</v>
       </c>
       <c r="F40" t="n">
-        <v>408.1181078413185</v>
+        <v>212.6787606568824</v>
       </c>
       <c r="G40" t="n">
-        <v>243.3769274538369</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="H40" t="n">
-        <v>111.0328668331528</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="I40" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940076</v>
       </c>
       <c r="J40" t="n">
         <v>106.8432439715839</v>
       </c>
       <c r="K40" t="n">
-        <v>478.4017991102777</v>
+        <v>332.503885058353</v>
       </c>
       <c r="L40" t="n">
-        <v>1020.482482496537</v>
+        <v>456.3746866766509</v>
       </c>
       <c r="M40" t="n">
-        <v>1610.570742015979</v>
+        <v>586.9790790151803</v>
       </c>
       <c r="N40" t="n">
-        <v>1738.069653819869</v>
+        <v>1156.736793976715</v>
       </c>
       <c r="O40" t="n">
-        <v>1855.83553516763</v>
+        <v>1694.171924550258</v>
       </c>
       <c r="P40" t="n">
-        <v>2304.111485315656</v>
+        <v>2142.447874698283</v>
       </c>
       <c r="Q40" t="n">
-        <v>2380.407920793274</v>
+        <v>2380.40792079327</v>
       </c>
       <c r="R40" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="S40" t="n">
-        <v>2271.926542525846</v>
+        <v>2277.449005186474</v>
       </c>
       <c r="T40" t="n">
-        <v>2029.679318429252</v>
+        <v>2035.20178108988</v>
       </c>
       <c r="U40" t="n">
-        <v>2029.679318429252</v>
+        <v>1756.815149138623</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.679318429252</v>
+        <v>1469.859641009054</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.652914015544</v>
+        <v>1197.833236595345</v>
       </c>
       <c r="X40" t="n">
-        <v>1512.261159348956</v>
+        <v>952.4414819287579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.841488663065</v>
+        <v>725.0218112428662</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>870.7449789968388</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C41" t="n">
-        <v>432.6025061802621</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D41" t="n">
-        <v>47.20655154895474</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895474</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.790516184048</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V41" t="n">
-        <v>1698.173566117875</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W41" t="n">
-        <v>1698.173566117875</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X41" t="n">
-        <v>1279.031102697185</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y41" t="n">
-        <v>870.7449789968388</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>750.8436067979059</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C43" t="n">
-        <v>578.2818952811308</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D43" t="n">
-        <v>412.4039024826535</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E43" t="n">
-        <v>242.6458987333908</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,22 +7572,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.751453776091</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2267.636064685325</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2025.388840588732</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>2025.388840588732</v>
       </c>
       <c r="V43" t="n">
-        <v>1687.500055283081</v>
+        <v>1738.433332459162</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.473650869372</v>
+        <v>1466.406928045454</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.081896202785</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="Y43" t="n">
-        <v>942.6622255168929</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1081.54685999802</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C44" t="n">
-        <v>1081.54685999802</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D44" t="n">
-        <v>1081.54685999802</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E44" t="n">
-        <v>647.7721151563153</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
-        <v>219.904685565523</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7645,16 +7645,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X44" t="n">
-        <v>1081.54685999802</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y44" t="n">
-        <v>1081.54685999802</v>
+        <v>1337.186882365126</v>
       </c>
     </row>
     <row r="45">
@@ -7709,13 +7709,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7809,22 +7809,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>326.783117436994</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>910.9641928553089</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.721907816843</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>2018.157038390386</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7836,22 +7836,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.558898871145</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W46" t="n">
-        <v>1650.558898871145</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="X46" t="n">
-        <v>1405.167144204558</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>1177.747473518666</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8221,25 +8221,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
@@ -8376,25 +8376,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8613,25 +8613,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
         <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042861</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,19 +9087,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>152.9002451589009</v>
       </c>
       <c r="M16" t="n">
-        <v>30.81754489126229</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>36.18222959783679</v>
+        <v>36.18222959783367</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9336,10 +9336,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>259.8370681095093</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>99.49157273563787</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>36.18222959783367</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>36.18222959783679</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>259.8370681095092</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.1621621406171</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.1563429200475</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>509.7493287307154</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>545.8002937490523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.1053779017102</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9810,7 +9810,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>150.5924936582965</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9883,19 +9883,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>213.2711425132356</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>413.6345291375271</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>478.6092875185454</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.2963841322171</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.518533120449717</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>149.118385115044</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.2544722033713</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>363.4897899596187</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>81.10537790171048</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>478.6092875185454</v>
       </c>
       <c r="Q32" t="n">
-        <v>545.8002937490523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>148.2963841322171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>169.3062583899061</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>298.4513801855039</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>36.18222959783367</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>36.18222959783679</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>98.79215225299185</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>203.6454342610274</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>36.18222959783679</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>36.18222959783361</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>130.1621621406171</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.595115400971736</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M43" t="n">
-        <v>264.6463123855408</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23272,7 +23272,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>11.75530821121237</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>354.4133281026694</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>51.21767547602093</v>
+        <v>10.75588473158547</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>42.82679469011293</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.7147550774171</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>107.7197912193646</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.3145178010418</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>284.6984891091185</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>228.5986439001398</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.10795182748492</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>182.9864771754321</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>171.4074808238012</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,13 +24028,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>46.23074626304935</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24180,7 +24180,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>79.40705014906959</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>74.44039502090294</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>83.50892890005053</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24259,22 +24259,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>246.9324276457657</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>61.10032430246764</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>72.38815019460418</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>4.367114016249445</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>292.0816376740138</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>240.1676881849941</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>95.17000544641132</v>
       </c>
     </row>
     <row r="33">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>99.36832367632638</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25210,19 +25210,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>23.96192157687236</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>54.32889954810717</v>
       </c>
       <c r="T37" t="n">
-        <v>68.97275478611101</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>414.9903528253473</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>299.88759859496</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>19.2793268760545</v>
+        <v>24.74656491007913</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>50.00869189230565</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>201.567237722248</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>51.2176754760204</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>133.4142235926361</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>10.26778233775985</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>224.536511730915</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.299356559713</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>61.03815536706659</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>325087.6885722098</v>
+        <v>325087.6885722094</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>325087.6885722097</v>
+        <v>325087.6885722094</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>325087.6885722099</v>
+        <v>325087.6885722093</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>325087.6885722098</v>
+        <v>325087.6885722093</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>320099.9718041889</v>
+        <v>320099.9718041888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150663</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150664</v>
       </c>
       <c r="E2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="F2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="G2" t="n">
-        <v>246658.4958135104</v>
+        <v>246658.4958135102</v>
       </c>
       <c r="H2" t="n">
-        <v>246658.4958135104</v>
+        <v>246658.4958135102</v>
       </c>
       <c r="I2" t="n">
-        <v>293143.8401912074</v>
+        <v>293143.8401912075</v>
       </c>
       <c r="J2" t="n">
-        <v>293143.8401912074</v>
+        <v>293143.8401912075</v>
       </c>
       <c r="K2" t="n">
         <v>293143.8401912075</v>
       </c>
       <c r="L2" t="n">
-        <v>293143.8401912076</v>
+        <v>293143.8401912077</v>
       </c>
       <c r="M2" t="n">
-        <v>246658.4958135104</v>
+        <v>246658.4958135102</v>
       </c>
       <c r="N2" t="n">
-        <v>246658.4958135104</v>
+        <v>246658.4958135101</v>
       </c>
       <c r="O2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="P2" t="n">
         <v>243811.2355162669</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2504.550085543296</v>
+        <v>2504.550085543093</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39672.17110964658</v>
+        <v>39672.17110964678</v>
       </c>
       <c r="J3" t="n">
         <v>10809.82265736726</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99576.70586096645</v>
+        <v>99576.70586096628</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>301646.5989996908</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="F4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="G4" t="n">
-        <v>15248.77948144406</v>
+        <v>15248.77948144393</v>
       </c>
       <c r="H4" t="n">
-        <v>15248.77948144406</v>
+        <v>15248.77948144394</v>
       </c>
       <c r="I4" t="n">
-        <v>38290.18362809524</v>
+        <v>38290.18362809526</v>
       </c>
       <c r="J4" t="n">
-        <v>38290.18362809525</v>
+        <v>38290.18362809526</v>
       </c>
       <c r="K4" t="n">
         <v>38290.18362809526</v>
       </c>
       <c r="L4" t="n">
-        <v>38290.18362809526</v>
+        <v>38290.18362809525</v>
       </c>
       <c r="M4" t="n">
-        <v>15248.77948144406</v>
+        <v>15248.77948144394</v>
       </c>
       <c r="N4" t="n">
-        <v>15248.77948144406</v>
+        <v>15248.77948144394</v>
       </c>
       <c r="O4" t="n">
         <v>13837.4771430886</v>
@@ -26478,16 +26478,16 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46606.66303717685</v>
+        <v>46606.6630371768</v>
       </c>
       <c r="H5" t="n">
-        <v>46606.66303717685</v>
+        <v>46606.6630371768</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
@@ -26502,10 +26502,10 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46606.66303717685</v>
+        <v>46606.6630371768</v>
       </c>
       <c r="N5" t="n">
-        <v>46606.66303717685</v>
+        <v>46606.6630371768</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63882.41396378954</v>
+        <v>63882.41396378931</v>
       </c>
       <c r="C6" t="n">
-        <v>77728.02173008608</v>
+        <v>77728.02173008602</v>
       </c>
       <c r="D6" t="n">
-        <v>77728.02173008608</v>
+        <v>77728.02173008591</v>
       </c>
       <c r="E6" t="n">
-        <v>-354876.7728472108</v>
+        <v>-355430.6532904326</v>
       </c>
       <c r="F6" t="n">
-        <v>183922.6771635404</v>
+        <v>183368.7967203186</v>
       </c>
       <c r="G6" t="n">
-        <v>182298.5032093462</v>
+        <v>181753.8074767607</v>
       </c>
       <c r="H6" t="n">
-        <v>184803.0532948895</v>
+        <v>184258.3575623038</v>
       </c>
       <c r="I6" t="n">
-        <v>159504.2036856638</v>
+        <v>159109.4606768771</v>
       </c>
       <c r="J6" t="n">
-        <v>188366.5521379431</v>
+        <v>187971.8091291566</v>
       </c>
       <c r="K6" t="n">
-        <v>199176.3747953105</v>
+        <v>198781.6317865239</v>
       </c>
       <c r="L6" t="n">
-        <v>199176.3747953105</v>
+        <v>198781.631786524</v>
       </c>
       <c r="M6" t="n">
-        <v>85226.34743392302</v>
+        <v>84681.6517013375</v>
       </c>
       <c r="N6" t="n">
-        <v>184803.0532948895</v>
+        <v>184258.3575623037</v>
       </c>
       <c r="O6" t="n">
-        <v>183922.6771635404</v>
+        <v>183368.7967203186</v>
       </c>
       <c r="P6" t="n">
-        <v>183922.6771635404</v>
+        <v>183368.7967203185</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26798,16 +26798,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>599.2197533675103</v>
+        <v>599.2197533675095</v>
       </c>
       <c r="H4" t="n">
-        <v>599.2197533675103</v>
+        <v>599.2197533675095</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,10 +26822,10 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>599.2197533675103</v>
+        <v>599.2197533675095</v>
       </c>
       <c r="N4" t="n">
-        <v>599.2197533675103</v>
+        <v>599.2197533675095</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.13785900557599</v>
+        <v>9.137859005575251</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>149.187808069489</v>
+        <v>149.1878080694897</v>
       </c>
       <c r="J4" t="n">
         <v>41.3150030475274</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.5790832449176</v>
+        <v>399.5790832449169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.13785900557599</v>
+        <v>9.137859005575251</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>83.70060738470343</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>48.14098415221586</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -27517,13 +27517,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27539,7 +27539,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27554,10 +27554,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27593,19 +27593,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V4" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X4" t="n">
-        <v>206.5475824356596</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27697,22 +27697,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>26.43062849183867</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27754,7 +27754,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0326012679123</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>152.8738121091899</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>202.1056489098019</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="8">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.70060738470343</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -27949,7 +27949,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27991,13 +27991,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W9" t="n">
         <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>174.713820929217</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28031,7 +28031,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>239.2584160551636</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28076,7 +28076,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32314,7 +32314,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562319</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32323,7 +32323,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
@@ -32551,7 +32551,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562319</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32572,7 +32572,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233624</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32809,7 +32809,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233624</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33262,7 +33262,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33508,7 +33508,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811314</v>
@@ -33739,7 +33739,7 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415859</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916761</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34444,7 +34444,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34701,28 +34701,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
@@ -35096,25 +35096,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
         <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35497,7 +35497,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409507</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,22 +35646,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35728,16 +35728,16 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35807,19 +35807,19 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447059</v>
+        <v>278.0222669955655</v>
       </c>
       <c r="M16" t="n">
-        <v>162.7411735160395</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>195.4213965104078</v>
+        <v>195.4213965104047</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562319</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -36056,10 +36056,10 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>378.7925038143192</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>201.2784981676414</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104047</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>154.0373652383828</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562319</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36220,7 +36220,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36281,25 +36281,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>357.6149474706792</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>255.2841839772817</v>
       </c>
       <c r="M22" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,16 +36357,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>276.3955098326185</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>748.4075614369995</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>198.9605135422562</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36518,19 +36518,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>269.5479293631065</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485105</v>
@@ -36603,19 +36603,19 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>542.713453794839</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>748.4075614369992</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.9036518201642</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36694,7 +36694,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.0192035266953</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>219.5903762571206</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36852,10 +36852,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>389.8617398913184</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>492.2765695595072</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37068,16 +37068,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>240.3445448142815</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.4075614369995</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>266.1515197727631</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37156,7 +37156,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>267.084137751076</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>430.3750088102812</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104047</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37320,7 +37320,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>352.2989109526779</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562326</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415859</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>223.9141740896564</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>596.0487469893359</v>
+        <v>335.5690628858046</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
@@ -37545,13 +37545,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,10 +37560,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>305.9805035162904</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>238.7894972857807</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916761</v>
+        <v>34.56235976916767</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>227.940041501787</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>77.06710654304834</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37797,10 +37797,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37940,25 +37940,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M43" t="n">
-        <v>396.569941010318</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,22 +38016,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38177,25 +38177,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>142.5533002411769</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320033</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>227.2024143463636</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
